--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_16_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_16_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3487274.012977149</v>
+        <v>3482969.67316728</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.105228318</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -661,73 +661,73 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="E2" t="n">
-        <v>129.538278081653</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="G2" t="n">
+        <v>12.83417464571001</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.2792495146817763</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>212.2897156032232</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
         <v>263.7138800015061</v>
-      </c>
-      <c r="G2" t="n">
-        <v>263.7138800015061</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>115.3066195468971</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>251.1481678782825</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -743,22 +743,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.947170385819799</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.92180400150561</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -788,13 +788,13 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>97.997064871815</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -803,10 +803,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -825,13 +825,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>83.43224246993546</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>108.3669376579031</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -901,22 +901,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="G5" t="n">
-        <v>221.0427070190019</v>
+        <v>12.83417464571001</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,13 +955,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>263.7138800015061</v>
+        <v>219.4450108596165</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -980,10 +980,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -1028,22 +1028,22 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>80.45485582529808</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>28.33708868093433</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1053,31 +1053,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>2.21468809059035</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>122.1505735248086</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888211</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>19.62758079759038</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>243.8113255583361</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.5491597882495</v>
+        <v>11.54915978824949</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.76608425465034</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4854171348407</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>83.68855303007095</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0453666896857</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1232,7 +1232,7 @@
         <v>92.83909691614507</v>
       </c>
       <c r="I9" t="n">
-        <v>20.24979976115237</v>
+        <v>20.2497997611524</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,13 +1262,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>132.6026661256438</v>
+        <v>134.3791152901738</v>
       </c>
       <c r="T9" t="n">
         <v>192.0697045406877</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8092543744329</v>
+        <v>224.0328052099011</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1299,19 +1299,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.3072536117062</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2573199590395</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.8162497430995</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>210.3429050140473</v>
+        <v>170.5614640466854</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1536,19 +1536,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>113.9549918517058</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1593,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>99.21841339139988</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187857</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1663,13 +1663,13 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1767,7 +1767,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1779,7 +1779,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -1815,13 +1815,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>271.1749250822257</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1830,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>32.57570591153918</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1852,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -2013,16 +2013,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>39.56681219551418</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.73384166348</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2295,10 +2295,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>147.6895341487364</v>
       </c>
       <c r="V22" t="n">
-        <v>180.0179497934419</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2414,7 +2414,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H24" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2532,13 +2532,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>141.383131826302</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2557,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710068</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2651,7 +2651,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2718,7 +2718,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>1.255571502167816</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2727,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>19.91555826189063</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2769,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2848,7 +2848,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2958,19 +2958,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>115.4764219077142</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3097,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560528</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>13.03790159951642</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3265,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695518</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576159</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174129</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182122</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.433962646569</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229311</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462237</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856541</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012156</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>70.40964990483532</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.5229983365909</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3517,10 +3517,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3559,13 +3559,13 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174129</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986277</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>114.5157480654962</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229311</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462237</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856541</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012156</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.184474389244</v>
+        <v>162.4016674345625</v>
       </c>
       <c r="V40" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.5229983365909</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3739,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3751,7 +3751,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417105</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3793,10 +3793,10 @@
         <v>83.70251495695531</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576159</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182122</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>125.425033180672</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229311</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856541</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012156</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272881</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.5229983365909</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4033,10 +4033,10 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701319</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4185,10 +4185,10 @@
         <v>66.3752467101217</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>144.7193406055811</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>189.4027099929735</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,46 +4306,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>801.1705019471533</v>
+        <v>574.0438072739746</v>
       </c>
       <c r="C2" t="n">
-        <v>801.1705019471533</v>
+        <v>307.6661507067967</v>
       </c>
       <c r="D2" t="n">
-        <v>801.1705019471533</v>
+        <v>41.28849413961871</v>
       </c>
       <c r="E2" t="n">
-        <v>670.32375641013</v>
+        <v>41.28849413961871</v>
       </c>
       <c r="F2" t="n">
-        <v>403.9460998429521</v>
+        <v>34.34299339041523</v>
       </c>
       <c r="G2" t="n">
-        <v>137.5684432757741</v>
+        <v>21.37918061697077</v>
       </c>
       <c r="H2" t="n">
-        <v>137.5684432757741</v>
+        <v>21.37918061697077</v>
       </c>
       <c r="I2" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917579</v>
+        <v>49.28269087917624</v>
       </c>
       <c r="K2" t="n">
-        <v>142.264087905254</v>
+        <v>142.2640879052547</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515905</v>
+        <v>294.5174947515912</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030603</v>
+        <v>495.5981834030611</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991316</v>
+        <v>704.5463761991323</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358413</v>
+        <v>888.5149683358418</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4360,22 +4360,22 @@
         <v>1054.855520006025</v>
       </c>
       <c r="T2" t="n">
-        <v>1054.855520006025</v>
+        <v>840.4214638411526</v>
       </c>
       <c r="U2" t="n">
-        <v>801.1705019471533</v>
+        <v>840.4214638411526</v>
       </c>
       <c r="V2" t="n">
-        <v>801.1705019471533</v>
+        <v>840.4214638411526</v>
       </c>
       <c r="W2" t="n">
-        <v>801.1705019471533</v>
+        <v>840.4214638411526</v>
       </c>
       <c r="X2" t="n">
-        <v>801.1705019471533</v>
+        <v>840.4214638411526</v>
       </c>
       <c r="Y2" t="n">
-        <v>801.1705019471533</v>
+        <v>574.0438072739746</v>
       </c>
     </row>
     <row r="3">
@@ -4385,46 +4385,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>787.653248772002</v>
+        <v>242.8925380522833</v>
       </c>
       <c r="C3" t="n">
-        <v>613.200219490875</v>
+        <v>68.43950877115626</v>
       </c>
       <c r="D3" t="n">
-        <v>464.2658098296238</v>
+        <v>68.43950877115626</v>
       </c>
       <c r="E3" t="n">
-        <v>305.0283548241683</v>
+        <v>68.43950877115626</v>
       </c>
       <c r="F3" t="n">
-        <v>158.4937968510533</v>
+        <v>68.43950877115626</v>
       </c>
       <c r="G3" t="n">
-        <v>21.09711040012049</v>
+        <v>68.43950877115626</v>
       </c>
       <c r="H3" t="n">
-        <v>21.09711040012049</v>
+        <v>65.46256898749989</v>
       </c>
       <c r="I3" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="J3" t="n">
-        <v>21.09711040012049</v>
+        <v>117.4455628004806</v>
       </c>
       <c r="K3" t="n">
-        <v>192.1295835699343</v>
+        <v>192.1295835699347</v>
       </c>
       <c r="L3" t="n">
-        <v>338.874007230231</v>
+        <v>338.8740072302313</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4746963267547</v>
+        <v>529.4746963267551</v>
       </c>
       <c r="N3" t="n">
-        <v>739.5286634293598</v>
+        <v>739.52866342936</v>
       </c>
       <c r="O3" t="n">
-        <v>909.4672107560896</v>
+        <v>909.4672107560897</v>
       </c>
       <c r="P3" t="n">
         <v>1026.524810789493</v>
@@ -4436,25 +4436,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S3" t="n">
-        <v>955.86858579207</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T3" t="n">
-        <v>955.86858579207</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U3" t="n">
-        <v>955.86858579207</v>
+        <v>826.7196740428381</v>
       </c>
       <c r="V3" t="n">
-        <v>955.86858579207</v>
+        <v>826.7196740428381</v>
       </c>
       <c r="W3" t="n">
-        <v>955.86858579207</v>
+        <v>826.7196740428381</v>
       </c>
       <c r="X3" t="n">
-        <v>955.86858579207</v>
+        <v>618.8681738373052</v>
       </c>
       <c r="Y3" t="n">
-        <v>955.86858579207</v>
+        <v>411.1078750723513</v>
       </c>
     </row>
     <row r="4">
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>744.4145270104677</v>
+        <v>424.4249251342374</v>
       </c>
       <c r="C4" t="n">
-        <v>575.4783440825609</v>
+        <v>255.4887422063304</v>
       </c>
       <c r="D4" t="n">
-        <v>425.3617046702251</v>
+        <v>105.3721027939947</v>
       </c>
       <c r="E4" t="n">
-        <v>277.448611087832</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F4" t="n">
-        <v>130.5586635899216</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G4" t="n">
         <v>21.09711040012049</v>
@@ -4491,19 +4491,19 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287947</v>
+        <v>126.4133765287946</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551009</v>
+        <v>316.7083726551008</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375336</v>
+        <v>527.7368878375335</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227046</v>
+        <v>739.1822330227045</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075542</v>
+        <v>918.4699372075543</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4512,28 +4512,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>926.0629918407075</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S4" t="n">
-        <v>926.0629918407075</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T4" t="n">
-        <v>926.0629918407075</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U4" t="n">
-        <v>926.0629918407075</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V4" t="n">
-        <v>926.0629918407075</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W4" t="n">
-        <v>926.0629918407075</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X4" t="n">
-        <v>926.0629918407075</v>
+        <v>826.8659691080072</v>
       </c>
       <c r="Y4" t="n">
-        <v>926.0629918407075</v>
+        <v>606.0733899644771</v>
       </c>
     </row>
     <row r="5">
@@ -4543,46 +4543,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>367.789405660333</v>
+        <v>566.8162363079209</v>
       </c>
       <c r="C5" t="n">
-        <v>367.789405660333</v>
+        <v>566.8162363079209</v>
       </c>
       <c r="D5" t="n">
-        <v>367.789405660333</v>
+        <v>300.438579740743</v>
       </c>
       <c r="E5" t="n">
-        <v>367.789405660333</v>
+        <v>300.438579740743</v>
       </c>
       <c r="F5" t="n">
-        <v>360.8439049111296</v>
+        <v>34.06092317356495</v>
       </c>
       <c r="G5" t="n">
-        <v>137.5684432757742</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H5" t="n">
-        <v>137.5684432757742</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I5" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917624</v>
+        <v>49.28269087917573</v>
       </c>
       <c r="K5" t="n">
-        <v>142.2640879052547</v>
+        <v>142.2640879052541</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515912</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030611</v>
+        <v>495.5981834030604</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991323</v>
+        <v>704.5463761991317</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358418</v>
+        <v>888.5149683358414</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
@@ -4594,25 +4594,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S5" t="n">
-        <v>900.5447187946889</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T5" t="n">
-        <v>900.5447187946889</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U5" t="n">
-        <v>900.5447187946889</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V5" t="n">
-        <v>634.167062227511</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W5" t="n">
-        <v>367.789405660333</v>
+        <v>833.193892875099</v>
       </c>
       <c r="X5" t="n">
-        <v>367.789405660333</v>
+        <v>566.8162363079209</v>
       </c>
       <c r="Y5" t="n">
-        <v>367.789405660333</v>
+        <v>566.8162363079209</v>
       </c>
     </row>
     <row r="6">
@@ -4622,46 +4622,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>342.0846976543626</v>
+        <v>650.2565623210693</v>
       </c>
       <c r="C6" t="n">
-        <v>167.6316683732355</v>
+        <v>475.8035330399423</v>
       </c>
       <c r="D6" t="n">
-        <v>167.6316683732355</v>
+        <v>326.869123378691</v>
       </c>
       <c r="E6" t="n">
         <v>167.6316683732355</v>
       </c>
       <c r="F6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J6" t="n">
-        <v>117.4455628004806</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K6" t="n">
-        <v>192.1295835699347</v>
+        <v>192.1295835699344</v>
       </c>
       <c r="L6" t="n">
-        <v>338.8740072302313</v>
+        <v>338.8740072302311</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4746963267551</v>
+        <v>529.474696326755</v>
       </c>
       <c r="N6" t="n">
         <v>739.52866342936</v>
       </c>
       <c r="O6" t="n">
-        <v>909.4672107560897</v>
+        <v>909.4672107560898</v>
       </c>
       <c r="P6" t="n">
         <v>1026.524810789493</v>
@@ -4676,22 +4676,22 @@
         <v>1054.855520006025</v>
       </c>
       <c r="T6" t="n">
-        <v>973.5879888693598</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U6" t="n">
-        <v>745.4521429061733</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V6" t="n">
-        <v>510.3000346744306</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W6" t="n">
-        <v>510.3000346744306</v>
+        <v>1026.232198106091</v>
       </c>
       <c r="X6" t="n">
-        <v>510.3000346744306</v>
+        <v>1026.232198106091</v>
       </c>
       <c r="Y6" t="n">
-        <v>510.3000346744306</v>
+        <v>818.4718993411373</v>
       </c>
     </row>
     <row r="7">
@@ -4701,46 +4701,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>159.7059716361717</v>
+        <v>652.4144760322549</v>
       </c>
       <c r="C7" t="n">
-        <v>159.7059716361717</v>
+        <v>483.478293104348</v>
       </c>
       <c r="D7" t="n">
-        <v>159.7059716361717</v>
+        <v>333.3616536920123</v>
       </c>
       <c r="E7" t="n">
-        <v>159.7059716361717</v>
+        <v>185.4485601096192</v>
       </c>
       <c r="F7" t="n">
-        <v>159.7059716361717</v>
+        <v>38.55861261170881</v>
       </c>
       <c r="G7" t="n">
-        <v>159.7059716361717</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="H7" t="n">
-        <v>159.7059716361717</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="I7" t="n">
-        <v>36.32155393434485</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="J7" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287946</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551008</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375336</v>
+        <v>527.7368878375337</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227046</v>
+        <v>739.1822330227047</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075543</v>
+        <v>918.4699372075544</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4749,28 +4749,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R7" t="n">
-        <v>926.0629918407075</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S7" t="n">
-        <v>906.2371526512222</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T7" t="n">
-        <v>680.7681164092365</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U7" t="n">
-        <v>680.7681164092365</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V7" t="n">
-        <v>426.0836282033496</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W7" t="n">
-        <v>159.7059716361717</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X7" t="n">
-        <v>159.7059716361717</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="Y7" t="n">
-        <v>159.7059716361717</v>
+        <v>834.0629408624947</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1190.607836361348</v>
+        <v>1201.091193511554</v>
       </c>
       <c r="C8" t="n">
-        <v>944.3337701408066</v>
+        <v>832.1286765711425</v>
       </c>
       <c r="D8" t="n">
-        <v>944.3337701408066</v>
+        <v>473.862977964392</v>
       </c>
       <c r="E8" t="n">
-        <v>944.3337701408066</v>
+        <v>473.862977964392</v>
       </c>
       <c r="F8" t="n">
-        <v>533.3478653511989</v>
+        <v>62.87707317478441</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6416433428661</v>
+        <v>51.21125520685563</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6416433428661</v>
+        <v>51.21125520685563</v>
       </c>
       <c r="I8" t="n">
-        <v>51.21125520685568</v>
+        <v>51.21125520685563</v>
       </c>
       <c r="J8" t="n">
-        <v>187.3702251467175</v>
+        <v>187.3702251467168</v>
       </c>
       <c r="K8" t="n">
-        <v>442.1757437607428</v>
+        <v>442.1757437607417</v>
       </c>
       <c r="L8" t="n">
-        <v>795.1862829045936</v>
+        <v>795.186282904592</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.647962995227</v>
+        <v>1219.647962995225</v>
       </c>
       <c r="N8" t="n">
-        <v>1655.591685209585</v>
+        <v>1655.591685209583</v>
       </c>
       <c r="O8" t="n">
-        <v>2053.905718940597</v>
+        <v>2053.905718940594</v>
       </c>
       <c r="P8" t="n">
-        <v>2359.356530550198</v>
+        <v>2359.356530550197</v>
       </c>
       <c r="Q8" t="n">
-        <v>2540.564622661164</v>
+        <v>2540.564622661162</v>
       </c>
       <c r="R8" t="n">
-        <v>2560.562760342784</v>
+        <v>2560.562760342782</v>
       </c>
       <c r="S8" t="n">
-        <v>2560.562760342784</v>
+        <v>2435.830015762134</v>
       </c>
       <c r="T8" t="n">
-        <v>2560.562760342784</v>
+        <v>2351.296123812568</v>
       </c>
       <c r="U8" t="n">
-        <v>2306.981581868354</v>
+        <v>2351.296123812568</v>
       </c>
       <c r="V8" t="n">
-        <v>2306.981581868354</v>
+        <v>2351.296123812568</v>
       </c>
       <c r="W8" t="n">
-        <v>1954.21292659824</v>
+        <v>2351.296123812568</v>
       </c>
       <c r="X8" t="n">
-        <v>1580.74716833716</v>
+        <v>1977.830365551488</v>
       </c>
       <c r="Y8" t="n">
-        <v>1190.607836361348</v>
+        <v>1587.691033575676</v>
       </c>
     </row>
     <row r="9">
@@ -4859,16 +4859,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041138965633</v>
+        <v>931.3041138965631</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8510846154363</v>
+        <v>756.8510846154361</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9166749541851</v>
+        <v>607.9166749541848</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792199487295</v>
+        <v>448.6792199487294</v>
       </c>
       <c r="F9" t="n">
         <v>302.1446619756144</v>
@@ -4877,49 +4877,49 @@
         <v>165.4424639718026</v>
       </c>
       <c r="H9" t="n">
-        <v>71.66559839993889</v>
+        <v>71.66559839993887</v>
       </c>
       <c r="I9" t="n">
-        <v>51.21125520685568</v>
+        <v>51.21125520685563</v>
       </c>
       <c r="J9" t="n">
-        <v>113.4887579637188</v>
+        <v>113.4887579637187</v>
       </c>
       <c r="K9" t="n">
-        <v>298.085754314818</v>
+        <v>559.9063389572706</v>
       </c>
       <c r="L9" t="n">
-        <v>592.6217377482993</v>
+        <v>854.4423223907518</v>
       </c>
       <c r="M9" t="n">
-        <v>955.6882062226007</v>
+        <v>1217.508790865053</v>
       </c>
       <c r="N9" t="n">
-        <v>1342.77260869517</v>
+        <v>1604.593193337622</v>
       </c>
       <c r="O9" t="n">
-        <v>1674.659418682559</v>
+        <v>1936.480003325011</v>
       </c>
       <c r="P9" t="n">
-        <v>2236.972918065721</v>
+        <v>2445.345361789036</v>
       </c>
       <c r="Q9" t="n">
-        <v>2536.272628442626</v>
+        <v>2560.562760342782</v>
       </c>
       <c r="R9" t="n">
-        <v>2560.562760342784</v>
+        <v>2560.562760342782</v>
       </c>
       <c r="S9" t="n">
-        <v>2426.620673347184</v>
+        <v>2424.826280251697</v>
       </c>
       <c r="T9" t="n">
-        <v>2232.610870780833</v>
+        <v>2230.816477685346</v>
       </c>
       <c r="U9" t="n">
         <v>2004.520714847062</v>
       </c>
       <c r="V9" t="n">
-        <v>1769.36860661532</v>
+        <v>1769.368606615319</v>
       </c>
       <c r="W9" t="n">
         <v>1515.131249887118</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>792.8709697833056</v>
+        <v>833.054243487711</v>
       </c>
       <c r="C10" t="n">
-        <v>623.9347868553987</v>
+        <v>664.1180605598041</v>
       </c>
       <c r="D10" t="n">
-        <v>473.818147443063</v>
+        <v>514.0014211474684</v>
       </c>
       <c r="E10" t="n">
-        <v>473.818147443063</v>
+        <v>366.0883275650752</v>
       </c>
       <c r="F10" t="n">
-        <v>473.818147443063</v>
+        <v>219.1983800671649</v>
       </c>
       <c r="G10" t="n">
-        <v>305.8310225827537</v>
+        <v>51.21125520685563</v>
       </c>
       <c r="H10" t="n">
-        <v>157.0862549473602</v>
+        <v>51.21125520685563</v>
       </c>
       <c r="I10" t="n">
-        <v>51.21125520685568</v>
+        <v>51.21125520685563</v>
       </c>
       <c r="J10" t="n">
-        <v>76.63468308380149</v>
+        <v>76.63468308380141</v>
       </c>
       <c r="K10" t="n">
-        <v>248.2500215676568</v>
+        <v>248.2500215676566</v>
       </c>
       <c r="L10" t="n">
-        <v>523.3850043368921</v>
+        <v>523.3850043368917</v>
       </c>
       <c r="M10" t="n">
-        <v>823.8653899904036</v>
+        <v>823.8653899904032</v>
       </c>
       <c r="N10" t="n">
-        <v>1122.635640101613</v>
+        <v>1122.635640101612</v>
       </c>
       <c r="O10" t="n">
-        <v>1382.582027931091</v>
+        <v>1382.58202793109</v>
       </c>
       <c r="P10" t="n">
-        <v>1581.4903876165</v>
+        <v>1581.490387616499</v>
       </c>
       <c r="Q10" t="n">
-        <v>1635.769145477363</v>
+        <v>1635.769145477362</v>
       </c>
       <c r="R10" t="n">
-        <v>1635.769145477363</v>
+        <v>1635.769145477362</v>
       </c>
       <c r="S10" t="n">
-        <v>1635.769145477363</v>
+        <v>1635.769145477362</v>
       </c>
       <c r="T10" t="n">
-        <v>1635.769145477363</v>
+        <v>1635.769145477362</v>
       </c>
       <c r="U10" t="n">
-        <v>1635.769145477363</v>
+        <v>1635.769145477362</v>
       </c>
       <c r="V10" t="n">
-        <v>1635.769145477363</v>
+        <v>1635.769145477362</v>
       </c>
       <c r="W10" t="n">
-        <v>1423.301564655093</v>
+        <v>1463.484838359498</v>
       </c>
       <c r="X10" t="n">
-        <v>1195.312013757075</v>
+        <v>1235.495287461481</v>
       </c>
       <c r="Y10" t="n">
-        <v>974.5194346135453</v>
+        <v>1014.702708317951</v>
       </c>
     </row>
     <row r="11">
@@ -5038,28 +5038,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5132,16 +5132,16 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1859.536823237711</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>701.4712640439268</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C13" t="n">
-        <v>532.5350811160199</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D13" t="n">
-        <v>382.4184417036842</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E13" t="n">
-        <v>382.4184417036842</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>2045.209862480144</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1790.525374274257</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614391</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y13" t="n">
-        <v>883.1197288741665</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="14">
@@ -5254,46 +5254,46 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5311,19 +5311,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5372,13 +5372,13 @@
         <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>929.7309773356195</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G16" t="n">
         <v>317.6151975578602</v>
@@ -5463,25 +5463,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>2106.003314093041</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1851.318825887154</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="X16" t="n">
-        <v>1144.284195611858</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y16" t="n">
-        <v>1111.379442165859</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="17">
@@ -5497,13 +5497,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5512,25 +5512,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5591,16 +5591,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
         <v>1373.553594266881</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>951.777212765616</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C19" t="n">
-        <v>782.8410298377091</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D19" t="n">
-        <v>632.7243904253734</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2406.996606615095</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="S19" t="n">
-        <v>2406.996606615095</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T19" t="n">
-        <v>2187.395141638036</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U19" t="n">
-        <v>1898.319914982233</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V19" t="n">
-        <v>1643.635426776346</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W19" t="n">
-        <v>1354.218256739386</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X19" t="n">
-        <v>1354.218256739386</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y19" t="n">
-        <v>1133.425677595856</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5740,25 +5740,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014778</v>
@@ -5825,31 +5825,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5889,25 +5889,25 @@
         <v>653.7474797708871</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5934,16 +5934,16 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V22" t="n">
         <v>1573.595244679635</v>
@@ -5983,25 +5983,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111722</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6016,22 +6016,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6062,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J24" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>315.9123021921482</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>913.2907898187001</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N24" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O24" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,37 +6123,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1901.695539989114</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1647.011051783227</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
         <v>1948.813509611463</v>
@@ -6211,25 +6211,25 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332386</v>
@@ -6244,34 +6244,34 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6299,28 +6299,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>802.9288273958739</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C28" t="n">
-        <v>633.992644467967</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D28" t="n">
-        <v>632.7243904253733</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U28" t="n">
-        <v>1977.461080510509</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V28" t="n">
-        <v>1722.776592304622</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W28" t="n">
-        <v>1433.359422267661</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X28" t="n">
-        <v>1205.369871369644</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y28" t="n">
-        <v>984.5772922261136</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="29">
@@ -6454,22 +6454,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797176</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111722</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014779</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6539,31 +6539,31 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756265</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>243.4633055756265</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438179</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>696.7084350851671</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C31" t="n">
-        <v>527.7722521572603</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D31" t="n">
-        <v>377.6556127449245</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E31" t="n">
-        <v>377.6556127449245</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797186</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T31" t="n">
-        <v>2160.315914855604</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U31" t="n">
-        <v>1871.240688199802</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V31" t="n">
-        <v>1616.556199993915</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W31" t="n">
-        <v>1327.139029956954</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X31" t="n">
-        <v>1099.149479058937</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y31" t="n">
-        <v>878.3568999154069</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6721,7 +6721,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6739,13 +6739,13 @@
         <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6776,31 +6776,31 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589157</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N33" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>789.7592298206043</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>620.8230468926974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>470.7064074803617</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>322.7933138979686</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>175.9033664000583</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797186</v>
@@ -6891,19 +6891,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1964.291482935239</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1709.606994729352</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1420.189824692392</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1192.200273794374</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>971.4076946508441</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004712</v>
@@ -6925,37 +6925,37 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168605</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192591</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
         <v>4562.265728852254</v>
@@ -6964,7 +6964,7 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
         <v>4405.252601474783</v>
@@ -6976,10 +6976,10 @@
         <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615996</v>
@@ -7013,31 +7013,31 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589157</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N36" t="n">
-        <v>1670.092171589157</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O36" t="n">
-        <v>2222.001901828444</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232831</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408901</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429798</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578599</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000581</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2125.941686997835</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1836.866460342033</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1836.866460342033</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1547.449290305073</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1319.459739407056</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1098.667160263526</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797186</v>
@@ -7174,19 +7174,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111722</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7213,10 +7213,10 @@
         <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615996</v>
@@ -7250,31 +7250,31 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N39" t="n">
-        <v>1700.311647517212</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O39" t="n">
-        <v>2252.221377756499</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>916.3099000622274</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="C40" t="n">
-        <v>747.3737171343206</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D40" t="n">
-        <v>631.7012443408901</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408901</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429798</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578599</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000581</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>2379.917379832663</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>2090.842153176861</v>
+        <v>1880.464695940366</v>
       </c>
       <c r="V40" t="n">
-        <v>1836.157664970975</v>
+        <v>1625.780207734479</v>
       </c>
       <c r="W40" t="n">
-        <v>1546.740494934014</v>
+        <v>1336.363037697518</v>
       </c>
       <c r="X40" t="n">
-        <v>1318.750944035997</v>
+        <v>1108.373486799501</v>
       </c>
       <c r="Y40" t="n">
-        <v>1097.958364892467</v>
+        <v>887.5809076559709</v>
       </c>
     </row>
     <row r="41">
@@ -7387,16 +7387,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
         <v>793.7736536168611</v>
@@ -7408,7 +7408,7 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111714</v>
@@ -7441,22 +7441,22 @@
         <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7487,31 +7487,31 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589157</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143764</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>768.5380889459602</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>599.6019060180535</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>449.4852666057179</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>322.7933138979683</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>175.9033664000581</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000581</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000581</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1688.385853854707</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1398.968683817747</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1170.97913291973</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>950.1865537761998</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7639,49 +7639,49 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398591</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492575</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474781</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.81249946657</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
         <v>3820.749612123003</v>
@@ -7715,34 +7715,34 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G45" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797182</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.388077746847</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>577.388077746847</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N45" t="n">
-        <v>1802.364528928005</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O45" t="n">
-        <v>2354.274259167292</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7782,37 +7782,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>951.7772127656159</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C46" t="n">
-        <v>782.841029837709</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D46" t="n">
-        <v>632.7243904253733</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
         <v>435.7419440038342</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7833,25 +7833,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T46" t="n">
-        <v>2197.062545487567</v>
+        <v>2233.736227705813</v>
       </c>
       <c r="U46" t="n">
-        <v>1907.987318831765</v>
+        <v>1944.661001050011</v>
       </c>
       <c r="V46" t="n">
-        <v>1653.302830625878</v>
+        <v>1689.976512844124</v>
       </c>
       <c r="W46" t="n">
-        <v>1363.885660588917</v>
+        <v>1400.559342807163</v>
       </c>
       <c r="X46" t="n">
         <v>1172.569791909146</v>
       </c>
       <c r="Y46" t="n">
-        <v>951.7772127656159</v>
+        <v>951.777212765616</v>
       </c>
     </row>
   </sheetData>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761153</v>
+        <v>60.51967546761156</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418266</v>
+        <v>99.37288961069115</v>
       </c>
       <c r="K3" t="n">
-        <v>97.32166909127238</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8151,7 +8151,7 @@
         <v>171.8177168444618</v>
       </c>
       <c r="O4" t="n">
-        <v>163.0416663658823</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
         <v>135.0065633140411</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761156</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>99.37288961069115</v>
+        <v>2.051220519418237</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>97.32166909127241</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8534,7 +8534,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>264.4747475094958</v>
       </c>
       <c r="Q9" t="n">
-        <v>185.9417291143027</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.98618304348513</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23424,19 +23424,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>172.2294825375383</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>119.3662399606949</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23655,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23667,7 +23667,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23703,13 +23703,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>15.00954930701846</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>186.0089474405556</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23901,16 +23901,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>26.80843451460751</v>
+        <v>10.85445046951749</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24183,10 +24183,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="V22" t="n">
-        <v>72.11969353038606</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24420,13 +24420,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>144.8013425629422</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24606,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>147.3599015160445</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.45968844823108</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24846,19 +24846,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>29.94462611521701</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>273.1465727897277</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,13 +25365,13 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>146.9958004224528</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25551,13 +25551,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>34.099724952716</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016445</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272881</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>123.7828069546817</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>21.00892946589701</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922687</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462237</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25845,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26073,10 +26073,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>72.68610972170717</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>36.30694539606361</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>675655.0481844522</v>
+        <v>675655.0481844521</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>675655.0481844522</v>
+        <v>675655.0481844521</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>675655.0481844522</v>
+        <v>675655.0481844523</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>675655.0481844523</v>
+        <v>675655.0481844521</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>675655.0481844523</v>
+        <v>675655.0481844522</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>675655.0481844522</v>
+        <v>675655.0481844521</v>
       </c>
     </row>
     <row r="16">
@@ -26313,43 +26313,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>759463.6371244617</v>
+        <v>759463.6371244618</v>
       </c>
       <c r="C2" t="n">
+        <v>759463.6371244618</v>
+      </c>
+      <c r="D2" t="n">
         <v>759463.6371244619</v>
       </c>
-      <c r="D2" t="n">
-        <v>759463.6371244624</v>
-      </c>
       <c r="E2" t="n">
+        <v>746610.6047132553</v>
+      </c>
+      <c r="F2" t="n">
+        <v>746610.6047132551</v>
+      </c>
+      <c r="G2" t="n">
+        <v>746610.6047132553</v>
+      </c>
+      <c r="H2" t="n">
         <v>746610.6047132555</v>
       </c>
-      <c r="F2" t="n">
-        <v>746610.6047132554</v>
-      </c>
-      <c r="G2" t="n">
-        <v>746610.6047132554</v>
-      </c>
-      <c r="H2" t="n">
-        <v>746610.6047132553</v>
-      </c>
       <c r="I2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="J2" t="n">
-        <v>746610.6047132555</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="K2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="L2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132551</v>
       </c>
       <c r="M2" t="n">
-        <v>746610.604713255</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="N2" t="n">
-        <v>746610.6047132551</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="O2" t="n">
         <v>746610.6047132552</v>
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911931</v>
+        <v>680087.9805911928</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
-        <v>390680.0076580792</v>
+        <v>390680.0076580785</v>
       </c>
       <c r="E3" t="n">
-        <v>507909.2320606933</v>
+        <v>507909.2320606936</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,22 +26383,22 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.574418839027077e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911425</v>
+        <v>68999.15441911407</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95270.23779101772</v>
+        <v>95270.23779101753</v>
       </c>
       <c r="M3" t="n">
-        <v>132717.9756954691</v>
+        <v>132717.9756954692</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>250332.6659748621</v>
+        <v>250332.6659748622</v>
       </c>
       <c r="C4" t="n">
         <v>250332.6659748621</v>
       </c>
       <c r="D4" t="n">
-        <v>139261.6527555024</v>
+        <v>139261.6527555025</v>
       </c>
       <c r="E4" t="n">
         <v>10557.08828678121</v>
@@ -26435,31 +26435,31 @@
         <v>10557.08828678121</v>
       </c>
       <c r="H4" t="n">
+        <v>10557.08828678123</v>
+      </c>
+      <c r="I4" t="n">
+        <v>10557.08828678126</v>
+      </c>
+      <c r="J4" t="n">
+        <v>10557.08828678124</v>
+      </c>
+      <c r="K4" t="n">
+        <v>10557.08828678126</v>
+      </c>
+      <c r="L4" t="n">
+        <v>10557.08828678127</v>
+      </c>
+      <c r="M4" t="n">
         <v>10557.08828678121</v>
-      </c>
-      <c r="I4" t="n">
-        <v>10557.08828678121</v>
-      </c>
-      <c r="J4" t="n">
-        <v>10557.08828678121</v>
-      </c>
-      <c r="K4" t="n">
-        <v>10557.08828678121</v>
-      </c>
-      <c r="L4" t="n">
-        <v>10557.08828678124</v>
-      </c>
-      <c r="M4" t="n">
-        <v>10557.08828678133</v>
       </c>
       <c r="N4" t="n">
         <v>10557.08828678127</v>
       </c>
       <c r="O4" t="n">
-        <v>10557.08828678127</v>
+        <v>10557.08828678125</v>
       </c>
       <c r="P4" t="n">
-        <v>10557.08828678134</v>
+        <v>10557.08828678126</v>
       </c>
     </row>
     <row r="5">
@@ -26472,10 +26472,10 @@
         <v>63047.80320426619</v>
       </c>
       <c r="C5" t="n">
-        <v>63047.80320426619</v>
+        <v>63047.8032042662</v>
       </c>
       <c r="D5" t="n">
-        <v>92902.86757567897</v>
+        <v>92902.86757567895</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-234004.8126458597</v>
+        <v>-234004.8126458594</v>
       </c>
       <c r="C6" t="n">
-        <v>446083.1679453338</v>
+        <v>446083.1679453333</v>
       </c>
       <c r="D6" t="n">
-        <v>136619.1091352018</v>
+        <v>136619.109135202</v>
       </c>
       <c r="E6" t="n">
-        <v>127021.7545418739</v>
+        <v>126674.3752875165</v>
       </c>
       <c r="F6" t="n">
-        <v>634930.9866025674</v>
+        <v>634583.6073482098</v>
       </c>
       <c r="G6" t="n">
-        <v>634930.9866025671</v>
+        <v>634583.6073482101</v>
       </c>
       <c r="H6" t="n">
-        <v>634930.986602567</v>
+        <v>634583.6073482103</v>
       </c>
       <c r="I6" t="n">
-        <v>634930.986602567</v>
+        <v>634583.6073482099</v>
       </c>
       <c r="J6" t="n">
-        <v>565931.832183453</v>
+        <v>565584.4529290958</v>
       </c>
       <c r="K6" t="n">
-        <v>634930.9866025674</v>
+        <v>634583.6073482099</v>
       </c>
       <c r="L6" t="n">
-        <v>539660.7488115493</v>
+        <v>539313.3695571923</v>
       </c>
       <c r="M6" t="n">
-        <v>502213.0109070975</v>
+        <v>501865.6316527408</v>
       </c>
       <c r="N6" t="n">
-        <v>634930.9866025668</v>
+        <v>634583.6073482099</v>
       </c>
       <c r="O6" t="n">
-        <v>634930.9866025669</v>
+        <v>634583.6073482099</v>
       </c>
       <c r="P6" t="n">
-        <v>634930.986602567</v>
+        <v>634583.6073482099</v>
       </c>
     </row>
   </sheetData>
@@ -26703,28 +26703,28 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="L2" t="n">
         <v>3.218023548783847e-14</v>
       </c>
       <c r="M2" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>3.519713256482333e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694781</v>
       </c>
       <c r="C3" t="n">
-        <v>614.0550137694781</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="D3" t="n">
-        <v>933.7024595627829</v>
+        <v>933.7024595627826</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26792,10 +26792,10 @@
         <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="D4" t="n">
-        <v>640.140690085696</v>
+        <v>640.1406900856954</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26925,7 +26925,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26937,10 +26937,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>9.644830090576139e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694781</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
-        <v>319.6474457933048</v>
+        <v>319.6474457933042</v>
       </c>
       <c r="E3" t="n">
-        <v>434.2730407788911</v>
+        <v>434.2730407788912</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26983,7 +26983,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.4268100841898</v>
+        <v>376.4268100841892</v>
       </c>
       <c r="E4" t="n">
-        <v>532.5675980139524</v>
+        <v>532.567598013953</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27041,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841898</v>
+        <v>376.4268100841892</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139524</v>
+        <v>532.567598013953</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27162,7 +27162,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841898</v>
+        <v>376.4268100841892</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139524</v>
+        <v>532.567598013953</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,25 +27381,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>101.5590117695014</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>90.96916161917682</v>
       </c>
       <c r="E2" t="n">
-        <v>252.3920919906088</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>143.1621657402053</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>149.1202946442039</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>314.193632629268</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.0273700322153</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,10 +27432,10 @@
         <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>122.5240586545474</v>
       </c>
     </row>
     <row r="3">
@@ -27463,22 +27463,22 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120976</v>
+        <v>96.53214988538996</v>
       </c>
       <c r="I3" t="n">
-        <v>43.9218040015056</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,16 +27505,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527768</v>
+        <v>18.1525249552777</v>
       </c>
       <c r="S3" t="n">
-        <v>49.15287054038377</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
         <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -27523,10 +27523,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27545,22 +27545,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>63.00172017663371</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>58.51672938064347</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
         <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1505735248085</v>
+        <v>122.1505735248086</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888209</v>
+        <v>15.07219909888211</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
         <v>204.7191642435938</v>
@@ -27602,10 +27602,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27621,22 +27621,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>90.96916161917676</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
+        <v>143.1621657402052</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
-      </c>
-      <c r="G5" t="n">
-        <v>191.7914676267081</v>
       </c>
       <c r="H5" t="n">
         <v>314.193632629268</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
         <v>212.2897156032232</v>
@@ -27675,13 +27675,13 @@
         <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
-        <v>64.03837846862876</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>85.52708871590687</v>
+        <v>129.7959578577965</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>106.0172206769628</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27700,10 +27700,10 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -27712,10 +27712,10 @@
         <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120976</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I6" t="n">
-        <v>43.92180400150561</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,28 +27742,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.1525249552777</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S6" t="n">
         <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
-        <v>114.3861317595787</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>223.3578944799853</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27773,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.8836670385466</v>
+        <v>164.6689789479562</v>
       </c>
       <c r="H7" t="n">
         <v>152.3821593358568</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
-        <v>185.0915834460034</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
         <v>286.2586305026775</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>22.80911833508486</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>121.4615662126715</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>301.0334742203004</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.76608425465039</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,19 +27903,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4854171348406</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6645630646898</v>
+        <v>122.9760100346189</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0453666896857</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -27982,13 +27982,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>1.776449164530078</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>1.776449164531812</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -28019,19 +28019,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2573199590395</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.8162497430995</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5869591640953</v>
+        <v>101.5869591640954</v>
       </c>
       <c r="S10" t="n">
         <v>194.6738502503845</v>
@@ -28073,7 +28073,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>76.18009332254366</v>
+        <v>115.9615342899056</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28800,7 +28800,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>6.429578708524912e-13</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -29094,7 +29094,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -29277,7 +29277,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>7.394985773160066e-13</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -29511,7 +29511,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29763,7 +29763,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29817,7 +29817,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>7.71678812803845e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -29985,25 +29985,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30143,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30222,7 +30222,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30237,7 +30237,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30279,13 +30279,13 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -30380,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30459,10 +30459,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -30471,7 +30471,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>9.848122317634988e-13</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -30513,10 +30513,10 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -30617,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -30753,10 +30753,10 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V44" t="n">
-        <v>3.012701199622825e-12</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -31047,16 +31047,16 @@
         <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.1692700235088</v>
+        <v>95.16927002350879</v>
       </c>
       <c r="J2" t="n">
-        <v>209.5161878388634</v>
+        <v>209.5161878388633</v>
       </c>
       <c r="K2" t="n">
         <v>314.0104541016252</v>
       </c>
       <c r="L2" t="n">
-        <v>389.5577350167918</v>
+        <v>389.5577350167917</v>
       </c>
       <c r="M2" t="n">
         <v>433.4580399459292</v>
@@ -31065,25 +31065,25 @@
         <v>440.4718441986831</v>
       </c>
       <c r="O2" t="n">
-        <v>415.9250721658379</v>
+        <v>415.9250721658378</v>
       </c>
       <c r="P2" t="n">
-        <v>354.9824263269073</v>
+        <v>354.9824263269072</v>
       </c>
       <c r="Q2" t="n">
-        <v>266.5770185656231</v>
+        <v>266.577018565623</v>
       </c>
       <c r="R2" t="n">
         <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702307</v>
+        <v>56.25237638702306</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1974850295540029</v>
+        <v>0.1974850295540028</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.32079757678718</v>
+        <v>1.320797576787179</v>
       </c>
       <c r="H3" t="n">
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990948</v>
+        <v>45.47482884990947</v>
       </c>
       <c r="J3" t="n">
         <v>124.7864061472484</v>
       </c>
       <c r="K3" t="n">
-        <v>213.2798437919895</v>
+        <v>213.2798437919894</v>
       </c>
       <c r="L3" t="n">
         <v>286.7810703458304</v>
       </c>
       <c r="M3" t="n">
-        <v>334.6599825043656</v>
+        <v>334.6599825043655</v>
       </c>
       <c r="N3" t="n">
-        <v>343.517436429399</v>
+        <v>343.5174364293989</v>
       </c>
       <c r="O3" t="n">
         <v>314.2513427542725</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480712</v>
+        <v>252.2144074480711</v>
       </c>
       <c r="Q3" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736545</v>
+        <v>82.00530919736543</v>
       </c>
       <c r="S3" t="n">
-        <v>24.53323569163905</v>
+        <v>24.53323569163904</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944814</v>
+        <v>5.323741109944813</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.0868945774202092</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,22 +31199,22 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.107312319912174</v>
+        <v>1.107312319912173</v>
       </c>
       <c r="H4" t="n">
-        <v>9.845013171582789</v>
+        <v>9.845013171582787</v>
       </c>
       <c r="I4" t="n">
-        <v>33.29990140244975</v>
+        <v>33.29990140244974</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779068</v>
+        <v>78.28698101779067</v>
       </c>
       <c r="K4" t="n">
         <v>128.6495586225234</v>
       </c>
       <c r="L4" t="n">
-        <v>164.6271425440336</v>
+        <v>164.6271425440335</v>
       </c>
       <c r="M4" t="n">
         <v>173.576239384051</v>
@@ -31226,19 +31226,19 @@
         <v>156.513563181768</v>
       </c>
       <c r="P4" t="n">
-        <v>133.9243918555596</v>
+        <v>133.9243918555595</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919121</v>
+        <v>92.7223070791912</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350555</v>
+        <v>49.78878849350554</v>
       </c>
       <c r="S4" t="n">
         <v>19.29743379337851</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715651</v>
+        <v>4.73124354871565</v>
       </c>
       <c r="U4" t="n">
         <v>0.06039885381339136</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425036</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H5" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I5" t="n">
-        <v>95.16927002350879</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J5" t="n">
-        <v>209.5161878388633</v>
+        <v>209.5161878388634</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016252</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L5" t="n">
-        <v>389.5577350167917</v>
+        <v>389.5577350167918</v>
       </c>
       <c r="M5" t="n">
-        <v>433.4580399459292</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N5" t="n">
-        <v>440.4718441986831</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O5" t="n">
-        <v>415.9250721658378</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P5" t="n">
-        <v>354.9824263269072</v>
+        <v>354.9824263269073</v>
       </c>
       <c r="Q5" t="n">
-        <v>266.577018565623</v>
+        <v>266.5770185656231</v>
       </c>
       <c r="R5" t="n">
         <v>155.0658623465206</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702306</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1974850295540028</v>
+        <v>0.1974850295540029</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.320797576787179</v>
+        <v>1.32079757678718</v>
       </c>
       <c r="H6" t="n">
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990947</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J6" t="n">
-        <v>124.7864061472484</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K6" t="n">
-        <v>213.2798437919894</v>
+        <v>213.2798437919895</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458304</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M6" t="n">
-        <v>334.6599825043655</v>
+        <v>334.6599825043656</v>
       </c>
       <c r="N6" t="n">
-        <v>343.5174364293989</v>
+        <v>343.517436429399</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542725</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480711</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q6" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736543</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S6" t="n">
-        <v>24.53323569163904</v>
+        <v>24.53323569163905</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944813</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U6" t="n">
-        <v>0.0868945774202092</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,22 +31436,22 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.107312319912173</v>
+        <v>1.107312319912174</v>
       </c>
       <c r="H7" t="n">
-        <v>9.845013171582787</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I7" t="n">
-        <v>33.29990140244974</v>
+        <v>33.29990140244975</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779067</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K7" t="n">
-        <v>128.6495586225234</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L7" t="n">
-        <v>164.6271425440335</v>
+        <v>164.6271425440336</v>
       </c>
       <c r="M7" t="n">
         <v>173.576239384051</v>
@@ -31460,25 +31460,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O7" t="n">
-        <v>156.513563181768</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P7" t="n">
-        <v>133.9243918555595</v>
+        <v>133.9243918555596</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.7223070791912</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350554</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S7" t="n">
-        <v>19.29743379337851</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T7" t="n">
-        <v>4.73124354871565</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.753577726885557</v>
+        <v>3.753577726885555</v>
       </c>
       <c r="H8" t="n">
-        <v>38.44132789546671</v>
+        <v>38.4413278954667</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7098053157556</v>
+        <v>144.7098053157555</v>
       </c>
       <c r="J8" t="n">
-        <v>318.5802175972533</v>
+        <v>318.5802175972532</v>
       </c>
       <c r="K8" t="n">
-        <v>477.469162776319</v>
+        <v>477.4691627763188</v>
       </c>
       <c r="L8" t="n">
-        <v>592.342717135493</v>
+        <v>592.3427171354928</v>
       </c>
       <c r="M8" t="n">
-        <v>659.095405035994</v>
+        <v>659.0954050359937</v>
       </c>
       <c r="N8" t="n">
-        <v>669.7602577525076</v>
+        <v>669.7602577525074</v>
       </c>
       <c r="O8" t="n">
-        <v>632.4356192307894</v>
+        <v>632.435619230789</v>
       </c>
       <c r="P8" t="n">
-        <v>539.7691690983021</v>
+        <v>539.7691690983019</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.3441667542129</v>
+        <v>405.3441667542128</v>
       </c>
       <c r="R8" t="n">
         <v>235.785676886475</v>
       </c>
       <c r="S8" t="n">
-        <v>85.53465245140471</v>
+        <v>85.53465245140468</v>
       </c>
       <c r="T8" t="n">
         <v>16.43128649944153</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3002862181508444</v>
+        <v>0.3002862181508443</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31597,43 +31597,43 @@
         <v>2.008341139436929</v>
       </c>
       <c r="H9" t="n">
-        <v>19.3963473203514</v>
+        <v>19.39634732035139</v>
       </c>
       <c r="I9" t="n">
-        <v>69.1468330902627</v>
+        <v>69.14683309026267</v>
       </c>
       <c r="J9" t="n">
         <v>189.7441951079425</v>
       </c>
       <c r="K9" t="n">
-        <v>324.3030514502168</v>
+        <v>324.3030514502167</v>
       </c>
       <c r="L9" t="n">
-        <v>436.0654741571281</v>
+        <v>436.0654741571279</v>
       </c>
       <c r="M9" t="n">
-        <v>508.8678404617166</v>
+        <v>508.8678404617164</v>
       </c>
       <c r="N9" t="n">
-        <v>522.3360580152214</v>
+        <v>522.3360580152212</v>
       </c>
       <c r="O9" t="n">
-        <v>477.8354464519084</v>
+        <v>477.8354464519082</v>
       </c>
       <c r="P9" t="n">
-        <v>383.5050724947589</v>
+        <v>383.5050724947588</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.3629847463702</v>
+        <v>256.36298474637</v>
       </c>
       <c r="R9" t="n">
-        <v>124.6933209204789</v>
+        <v>124.6933209204788</v>
       </c>
       <c r="S9" t="n">
-        <v>37.30405581366399</v>
+        <v>37.30405581366398</v>
       </c>
       <c r="T9" t="n">
-        <v>8.095024154133936</v>
+        <v>8.095024154133933</v>
       </c>
       <c r="U9" t="n">
         <v>0.1321277065419033</v>
@@ -31676,10 +31676,10 @@
         <v>1.683725746752559</v>
       </c>
       <c r="H10" t="n">
-        <v>14.96985254840004</v>
+        <v>14.96985254840003</v>
       </c>
       <c r="I10" t="n">
-        <v>50.63422518415879</v>
+        <v>50.63422518415878</v>
       </c>
       <c r="J10" t="n">
         <v>119.0394102954059</v>
@@ -31691,31 +31691,31 @@
         <v>250.3240987490123</v>
       </c>
       <c r="M10" t="n">
-        <v>263.9316641023125</v>
+        <v>263.9316641023124</v>
       </c>
       <c r="N10" t="n">
-        <v>257.655959046235</v>
+        <v>257.6559590462349</v>
       </c>
       <c r="O10" t="n">
         <v>237.9869810046254</v>
       </c>
       <c r="P10" t="n">
-        <v>203.6389757708731</v>
+        <v>203.638975770873</v>
       </c>
       <c r="Q10" t="n">
         <v>140.9890713939802</v>
       </c>
       <c r="R10" t="n">
-        <v>75.70643221307414</v>
+        <v>75.70643221307411</v>
       </c>
       <c r="S10" t="n">
-        <v>29.34274778658777</v>
+        <v>29.34274778658776</v>
       </c>
       <c r="T10" t="n">
-        <v>7.194100917942751</v>
+        <v>7.194100917942748</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09183958618650333</v>
+        <v>0.0918395861865033</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31843,37 +31843,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>322.6999460717711</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32092,7 +32092,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>363.5371514786841</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32101,7 +32101,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32311,19 +32311,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>173.8200325543357</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
@@ -32548,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32560,19 +32560,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>416.4300581532626</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32700,37 +32700,37 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R23" t="n">
         <v>345.4516222043725</v>
@@ -32739,10 +32739,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32788,37 +32788,37 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>209.9499448422525</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T24" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U24" t="n">
         <v>0.1935814387275954</v>
@@ -32864,28 +32864,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J25" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N25" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q25" t="n">
         <v>206.5643005515927</v>
@@ -32894,7 +32894,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,34 +33016,34 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N27" t="n">
-        <v>641.2555750770849</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,46 +33098,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33259,34 +33259,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420754</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M30" t="n">
-        <v>583.1096135868581</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071783</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742437</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420754</v>
@@ -33511,19 +33511,19 @@
         <v>745.5466476862119</v>
       </c>
       <c r="N33" t="n">
-        <v>322.6999460717718</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742437</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420754</v>
@@ -33748,19 +33748,19 @@
         <v>745.5466476862119</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P36" t="n">
-        <v>431.3680753731359</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742437</v>
@@ -33970,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420754</v>
@@ -33982,22 +33982,22 @@
         <v>638.8832749473071</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071783</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P39" t="n">
-        <v>165.2255134509767</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742437</v>
@@ -34207,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420754</v>
@@ -34225,7 +34225,7 @@
         <v>765.2790490071783</v>
       </c>
       <c r="O42" t="n">
-        <v>363.537151478685</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34234,7 +34234,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742437</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420754</v>
@@ -34453,7 +34453,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862119</v>
@@ -34462,10 +34462,10 @@
         <v>765.2790490071783</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P45" t="n">
-        <v>334.7693860946159</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217709</v>
+        <v>28.47028331217703</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664467</v>
+        <v>93.92060305664461</v>
       </c>
       <c r="L2" t="n">
         <v>153.7913200468045</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186565</v>
+        <v>203.1118067186564</v>
       </c>
       <c r="N2" t="n">
         <v>211.0587806020922</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441512</v>
+        <v>185.8268607441511</v>
       </c>
       <c r="P2" t="n">
         <v>123.7494305716377</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117358</v>
+        <v>44.27132869117352</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>97.32166909127285</v>
       </c>
       <c r="K3" t="n">
-        <v>172.7600739089029</v>
+        <v>75.43840481763041</v>
       </c>
       <c r="L3" t="n">
         <v>148.2266905659562</v>
       </c>
       <c r="M3" t="n">
-        <v>192.5259485823473</v>
+        <v>192.5259485823472</v>
       </c>
       <c r="N3" t="n">
-        <v>212.1757243460657</v>
+        <v>212.1757243460656</v>
       </c>
       <c r="O3" t="n">
-        <v>171.6550983098281</v>
+        <v>171.655098309828</v>
       </c>
       <c r="P3" t="n">
-        <v>118.240000033741</v>
+        <v>118.2400000337409</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649638</v>
+        <v>28.61687799649636</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34871,13 +34871,13 @@
         <v>213.581156752698</v>
       </c>
       <c r="O4" t="n">
-        <v>181.0986910958076</v>
+        <v>181.0986910958077</v>
       </c>
       <c r="P4" t="n">
-        <v>131.2029511204531</v>
+        <v>131.202951120453</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.560263827496826</v>
+        <v>6.560263827496811</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.47028331217703</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664461</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468045</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186564</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N5" t="n">
-        <v>211.0587806020922</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O5" t="n">
-        <v>185.8268607441511</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716377</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117352</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>97.32166909127285</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>75.43840481763041</v>
+        <v>172.7600739089029</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659562</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M6" t="n">
-        <v>192.5259485823472</v>
+        <v>192.5259485823473</v>
       </c>
       <c r="N6" t="n">
-        <v>212.1757243460656</v>
+        <v>212.1757243460657</v>
       </c>
       <c r="O6" t="n">
-        <v>171.655098309828</v>
+        <v>171.6550983098281</v>
       </c>
       <c r="P6" t="n">
-        <v>118.2400000337409</v>
+        <v>118.240000033741</v>
       </c>
       <c r="Q6" t="n">
-        <v>28.61687799649636</v>
+        <v>28.61687799649641</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35111,10 +35111,10 @@
         <v>181.0986910958077</v>
       </c>
       <c r="P7" t="n">
-        <v>131.202951120453</v>
+        <v>131.2029511204531</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.560263827496811</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.534313070567</v>
+        <v>137.5343130705669</v>
       </c>
       <c r="K8" t="n">
-        <v>257.3793117313385</v>
+        <v>257.3793117313382</v>
       </c>
       <c r="L8" t="n">
-        <v>356.5763021655058</v>
+        <v>356.5763021655055</v>
       </c>
       <c r="M8" t="n">
-        <v>428.7491718087213</v>
+        <v>428.749171808721</v>
       </c>
       <c r="N8" t="n">
-        <v>440.3471941559167</v>
+        <v>440.3471941559165</v>
       </c>
       <c r="O8" t="n">
-        <v>402.3374078091026</v>
+        <v>402.3374078091023</v>
       </c>
       <c r="P8" t="n">
-        <v>308.5361733430325</v>
+        <v>308.5361733430323</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.0384768797635</v>
+        <v>183.0384768797633</v>
       </c>
       <c r="R8" t="n">
-        <v>20.20013907234292</v>
+        <v>20.20013907234284</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.90656844127585</v>
+        <v>62.90656844127579</v>
       </c>
       <c r="K9" t="n">
-        <v>186.4616124758578</v>
+        <v>450.9268494884363</v>
       </c>
       <c r="L9" t="n">
-        <v>297.5110943772539</v>
+        <v>297.5110943772537</v>
       </c>
       <c r="M9" t="n">
-        <v>366.7338065396983</v>
+        <v>366.7338065396981</v>
       </c>
       <c r="N9" t="n">
-        <v>390.9943459318881</v>
+        <v>390.9943459318879</v>
       </c>
       <c r="O9" t="n">
-        <v>335.2392020074639</v>
+        <v>335.2392020074637</v>
       </c>
       <c r="P9" t="n">
-        <v>567.9934337203658</v>
+        <v>514.0054125899244</v>
       </c>
       <c r="Q9" t="n">
-        <v>302.3229397746513</v>
+        <v>116.3812106603485</v>
       </c>
       <c r="R9" t="n">
-        <v>24.53548676783574</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.68023017873315</v>
+        <v>25.68023017873311</v>
       </c>
       <c r="K10" t="n">
-        <v>173.348826751369</v>
+        <v>173.3488267513689</v>
       </c>
       <c r="L10" t="n">
-        <v>277.9141240093285</v>
+        <v>277.9141240093284</v>
       </c>
       <c r="M10" t="n">
-        <v>303.5155410641531</v>
+        <v>303.515541064153</v>
       </c>
       <c r="N10" t="n">
-        <v>301.7881314254636</v>
+        <v>301.7881314254635</v>
       </c>
       <c r="O10" t="n">
-        <v>262.5721089186651</v>
+        <v>262.572108918665</v>
       </c>
       <c r="P10" t="n">
         <v>200.9175350357665</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.82702814228584</v>
+        <v>54.82702814228578</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35494,25 +35494,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>191.3582339884378</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35740,7 +35740,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>220.9409070342396</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35749,7 +35749,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35907,7 +35907,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,19 +35959,19 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>35.97859357997668</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36208,19 +36208,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>274.2960242312443</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36354,31 +36354,31 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L23" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R23" t="n">
         <v>129.8660843902404</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L24" t="n">
-        <v>71.39556506237828</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K25" t="n">
         <v>264.3325884096349</v>
@@ -36524,19 +36524,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P25" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,28 +36670,28 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N27" t="n">
-        <v>509.9138629937516</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P28" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754087</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M30" t="n">
-        <v>440.9755796648398</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N30" t="n">
         <v>633.937336923845</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754087</v>
@@ -37159,19 +37159,19 @@
         <v>603.4126137641936</v>
       </c>
       <c r="N33" t="n">
-        <v>191.3582339884385</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924726</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754087</v>
@@ -37396,19 +37396,19 @@
         <v>603.4126137641936</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P36" t="n">
-        <v>297.3936679588056</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295346</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P37" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754087</v>
@@ -37630,22 +37630,22 @@
         <v>500.3288951674329</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N39" t="n">
         <v>633.937336923845</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P39" t="n">
-        <v>31.25110603664647</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295346</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P40" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754087</v>
@@ -37873,7 +37873,7 @@
         <v>633.937336923845</v>
       </c>
       <c r="O42" t="n">
-        <v>220.9409070342406</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37882,7 +37882,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295346</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P43" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754087</v>
@@ -38101,7 +38101,7 @@
         <v>337.2977496678995</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641936</v>
@@ -38110,10 +38110,10 @@
         <v>633.937336923845</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P45" t="n">
-        <v>200.7949786802857</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
